--- a/NationalLeague.xlsx
+++ b/NationalLeague.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83312D72-77C5-464A-8F61-F2F4DD0F2517}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D838512C-E6AC-B044-B408-B9B3EBAB042A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0201EDC9-125E-9145-B1CA-AD686D39C34B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{0201EDC9-125E-9145-B1CA-AD686D39C34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>CS</t>
   </si>
   <si>
-    <t>AVG▼</t>
-  </si>
-  <si>
     <t>OBP</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>PA</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
   <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,52 +718,52 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="T1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -771,10 +771,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
       </c>
       <c r="D2">
         <v>1705</v>
@@ -866,10 +866,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1594</v>
@@ -961,10 +961,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4">
         <v>1163</v>
@@ -1056,10 +1056,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5">
         <v>1705</v>
@@ -1151,10 +1151,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6">
         <v>940</v>
@@ -1246,10 +1246,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
       <c r="D7">
         <v>1221</v>
@@ -1341,10 +1341,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>1048</v>
@@ -1436,10 +1436,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>1282</v>
@@ -1531,10 +1531,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>812</v>
@@ -1626,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1721,10 +1721,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>1602</v>
@@ -1816,10 +1816,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>1112</v>
@@ -1911,10 +1911,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>1208</v>
@@ -2006,7 +2006,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -2101,10 +2101,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>1247</v>
@@ -2196,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -2291,7 +2291,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -2386,10 +2386,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>1496</v>
@@ -2481,10 +2481,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>1706</v>
@@ -2576,10 +2576,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
       </c>
       <c r="D21">
         <v>837</v>
@@ -2671,10 +2671,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>1072</v>
@@ -2766,10 +2766,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>996</v>
@@ -2861,10 +2861,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>1888</v>
@@ -2956,10 +2956,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>1572</v>
@@ -3051,7 +3051,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -3146,7 +3146,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -3241,10 +3241,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28">
         <v>1607</v>
@@ -3336,10 +3336,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
         <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
       </c>
       <c r="D29">
         <v>1314</v>
@@ -3431,10 +3431,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>947</v>
@@ -3526,10 +3526,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>1654</v>
@@ -3621,10 +3621,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>819</v>
@@ -3716,10 +3716,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33">
         <v>1112</v>
@@ -3811,7 +3811,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -3906,10 +3906,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35">
         <v>1184</v>
@@ -4001,10 +4001,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>1081</v>
@@ -4096,10 +4096,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37">
         <v>1080</v>
@@ -4191,10 +4191,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <v>986</v>
@@ -4286,10 +4286,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39">
         <v>911</v>
@@ -4381,10 +4381,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40">
         <v>950</v>
@@ -4476,10 +4476,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41">
         <v>1247</v>
@@ -4571,10 +4571,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42">
         <v>1175</v>
@@ -4666,10 +4666,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43">
         <v>1201</v>
@@ -4761,10 +4761,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44">
         <v>1153</v>
@@ -4856,10 +4856,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45">
         <v>1126</v>
@@ -4951,10 +4951,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46">
         <v>1467</v>
@@ -5046,10 +5046,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47">
         <v>1204</v>
@@ -5141,10 +5141,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
         <v>72</v>
-      </c>
-      <c r="C48" t="s">
-        <v>73</v>
       </c>
       <c r="D48">
         <v>585</v>
@@ -5236,10 +5236,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49">
         <v>973</v>
